--- a/xlsx/Copyleft_intext.xlsx
+++ b/xlsx/Copyleft_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>Copyleft</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由軟體運動</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Copyleft</t>
+    <t>自由软体运动</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Copyleft</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Copyright</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>公有領域</t>
+    <t>公有领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>GNU通用公共授權條款</t>
+    <t>GNU通用公共授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU較寬鬆公共許可證</t>
+    <t>GNU较宽松公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%87%AA%E7%94%B1%E6%96%87%E4%BB%B6%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>GNU自由文件授權條款</t>
+    <t>GNU自由文件授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E5%85%B1%E7%94%A8</t>
   </si>
   <si>
-    <t>創作共用</t>
+    <t>创作共用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E7%9C%BE%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>GNU通用公眾授權條款</t>
+    <t>GNU通用公众授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%89%BA%E6%9C%AF%E4%BD%9C%E5%93%81%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/All_Rights_Reversed</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>自由音樂</t>
+    <t>自由音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由文化運動</t>
+    <t>自由文化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BD%AF%E4%BB%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -131,19 +131,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A2%86%E5%9F%9F</t>
   </si>
   <si>
-    <t>公有领域</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E7%B5%B2%E5%B8%B6</t>
   </si>
   <si>
-    <t>藍絲帶</t>
+    <t>蓝丝带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E9%A9%AC%E4%BF%AE%C2%B7%E6%96%AF%E6%89%98%E6%9B%BC</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%B5%81%E6%B0%93</t>
   </si>
   <si>
-    <t>專利流氓</t>
+    <t>专利流氓</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commons-based_peer_production</t>
@@ -209,13 +206,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>開放內容</t>
+    <t>开放内容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%BA%90%E7%A1%AC%E4%BB%B6</t>
   </si>
   <si>
-    <t>開源硬件</t>
+    <t>开源硬件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E8%BD%AF%E4%BB%B6</t>
@@ -251,9 +248,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E4%BD%9C%E5%85%B1%E7%94%A8</t>
   </si>
   <si>
-    <t>创作共用</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%89%8D%E5%93%A8%E5%9F%BA%E9%87%91%E4%BC%9A</t>
   </si>
   <si>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organization_for_Transformative_Works</t>
@@ -275,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>海盜灣</t>
+    <t>海盗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%85%9A</t>
@@ -299,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E9%9B%B7%E5%B8%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·雷席格</t>
+    <t>劳伦斯·雷席格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E8%B5%B0%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>幹走電影</t>
+    <t>干走电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>開放原始碼作業系統的比較</t>
+    <t>开放原始码作业系统的比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BSD</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>貝爾實驗室九號計劃</t>
+    <t>贝尔实验室九号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ReactOS</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>開放原始碼軟體歷史</t>
+    <t>开放原始码软体历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Mozilla Firefox歷史</t>
+    <t>Mozilla Firefox历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Android</t>
@@ -521,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Apache軟件基金會</t>
+    <t>Apache软件基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Blender基金會</t>
+    <t>Blender基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNOME%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -569,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Linux基金會</t>
+    <t>Linux基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Symbian基金會</t>
+    <t>Symbian基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Xiph.Org基金會</t>
+    <t>Xiph.Org基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
@@ -629,25 +623,25 @@
     <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>X.Org基金會</t>
+    <t>X.Org基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>文檔基金會</t>
+    <t>文档基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>自由軟體許可證</t>
+    <t>自由软体许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Apache許可證</t>
+    <t>Apache许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU通用公共許可證</t>
+    <t>GNU通用公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -677,19 +671,19 @@
     <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>ISC許可證</t>
+    <t>ISC许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>MIT許可證</t>
+    <t>MIT许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Mozilla公共許可證</t>
+    <t>Mozilla公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>自由及開放原始碼軟體許可證比較</t>
+    <t>自由及开放原始码软体许可证比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FUD</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
   </si>
   <si>
-    <t>擁抱、擴充功能再消滅</t>
+    <t>拥抱、扩充功能再消灭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Binary_blob</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>數位版權管理</t>
+    <t>数位版权管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>自由軟體社群</t>
+    <t>自由软体社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux發行版</t>
+    <t>Linux发行版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
@@ -1702,7 +1696,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1728,10 +1722,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1757,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1786,10 +1780,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1815,10 +1809,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1844,10 +1838,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1873,10 +1867,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1902,10 +1896,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1931,10 +1925,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1960,10 +1954,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1989,10 +1983,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2018,10 +2012,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2047,10 +2041,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2076,10 +2070,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2105,10 +2099,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2134,10 +2128,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2163,10 +2157,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2192,10 +2186,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2221,10 +2215,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2250,10 +2244,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2279,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2337,10 +2331,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2366,10 +2360,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2395,10 +2389,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2424,10 +2418,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2453,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2482,10 +2476,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2511,10 +2505,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2540,10 +2534,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2569,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2598,10 +2592,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>11</v>
@@ -2627,10 +2621,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2656,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2685,10 +2679,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2714,10 +2708,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2743,10 +2737,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2772,10 +2766,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2801,10 +2795,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2830,10 +2824,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2859,10 +2853,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2888,10 +2882,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -2917,10 +2911,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2946,10 +2940,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2975,10 +2969,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3004,10 +2998,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3033,10 +3027,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3062,10 +3056,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3091,10 +3085,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3120,10 +3114,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3149,10 +3143,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3178,10 +3172,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3207,10 +3201,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3236,10 +3230,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3265,10 +3259,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3294,10 +3288,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3323,10 +3317,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3352,10 +3346,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3381,10 +3375,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3410,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3439,10 +3433,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3468,10 +3462,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3497,10 +3491,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3526,10 +3520,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3555,10 +3549,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3584,10 +3578,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3613,10 +3607,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3642,10 +3636,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3671,10 +3665,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3700,10 +3694,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3729,10 +3723,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3758,10 +3752,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3816,10 +3810,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3845,10 +3839,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3874,10 +3868,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3903,10 +3897,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3932,10 +3926,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3961,10 +3955,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3990,10 +3984,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4019,10 +4013,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4048,10 +4042,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4077,10 +4071,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -4106,10 +4100,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4135,10 +4129,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4164,10 +4158,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4193,10 +4187,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4222,10 +4216,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -4251,10 +4245,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4280,10 +4274,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4309,10 +4303,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4338,10 +4332,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4396,10 +4390,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4425,10 +4419,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4454,10 +4448,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4483,10 +4477,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4512,10 +4506,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4541,10 +4535,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4570,10 +4564,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4599,10 +4593,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4628,10 +4622,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4657,10 +4651,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4686,10 +4680,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4715,10 +4709,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4744,10 +4738,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4773,10 +4767,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4802,10 +4796,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4831,10 +4825,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4860,10 +4854,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4889,10 +4883,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4947,10 +4941,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4976,10 +4970,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5005,10 +4999,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5034,10 +5028,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5063,10 +5057,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5092,10 +5086,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
